--- a/src/data/GUS/New/28 warmińsko-mazurskie.xlsx
+++ b/src/data/GUS/New/28 warmińsko-mazurskie.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="10725" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="10725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spis tablic List of tables" sheetId="17" r:id="rId1"/>
@@ -1953,6 +1953,7 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="25" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2061,7 +2062,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5316,42 +5316,42 @@
         <v>74</v>
       </c>
       <c r="C12" s="58"/>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="122"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
-      <c r="Q12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="123"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="58"/>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="124"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="58"/>
@@ -5361,46 +5361,46 @@
         <v>75</v>
       </c>
       <c r="C15" s="58"/>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="122"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
-      <c r="Q15" s="122"/>
-      <c r="R15" s="122"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="123"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="58"/>
-      <c r="D16" s="123" t="s">
+      <c r="D16" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="124"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="124"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C17" s="58"/>
@@ -5410,43 +5410,43 @@
         <v>76</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="122"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="122"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
+      <c r="M18" s="123"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="123"/>
+      <c r="P18" s="123"/>
+      <c r="Q18" s="123"/>
+      <c r="R18" s="123"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C19" s="58"/>
-      <c r="D19" s="123" t="s">
+      <c r="D19" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
-      <c r="M19" s="123"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C20" s="58"/>
@@ -5456,43 +5456,43 @@
         <v>77</v>
       </c>
       <c r="C21" s="58"/>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
     </row>
     <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="58"/>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
-      <c r="M22" s="123"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="88"/>
@@ -5505,46 +5505,46 @@
         <v>90</v>
       </c>
       <c r="C24" s="58"/>
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="122"/>
-      <c r="Q24" s="122"/>
-      <c r="R24" s="122"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="123"/>
+      <c r="N24" s="123"/>
+      <c r="O24" s="123"/>
+      <c r="P24" s="123"/>
+      <c r="Q24" s="123"/>
+      <c r="R24" s="123"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="61" t="s">
         <v>96</v>
       </c>
       <c r="C25" s="58"/>
-      <c r="D25" s="123" t="s">
+      <c r="D25" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="123"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="124"/>
+      <c r="O25" s="124"/>
+      <c r="P25" s="124"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5588,14 +5588,14 @@
   <sheetPr codeName="Arkusz2">
     <tabColor rgb="FF66C2C9"/>
   </sheetPr>
-  <dimension ref="A1:AO313"/>
+  <dimension ref="A1:AO340"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5:A6"/>
       <selection pane="topRight" activeCell="A5" sqref="A5:A6"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A6"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="K340" sqref="K340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5606,8 +5606,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="76" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124"/>
-      <c r="B1" s="124"/>
+      <c r="A1" s="125"/>
+      <c r="B1" s="125"/>
       <c r="C1" s="73" t="s">
         <v>44</v>
       </c>
@@ -5651,10 +5651,10 @@
       <c r="AO1" s="77"/>
     </row>
     <row r="2" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="D2" s="26" t="s">
         <v>40</v>
       </c>
@@ -5697,10 +5697,10 @@
       <c r="AO2" s="24"/>
     </row>
     <row r="3" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="129"/>
       <c r="D3" s="22" t="s">
         <v>43</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="126" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="71" t="s">
@@ -6126,7 +6126,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="125"/>
+      <c r="A9" s="126"/>
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="125"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -6372,7 +6372,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="125"/>
+      <c r="A11" s="126"/>
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -6495,7 +6495,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="125"/>
+      <c r="A12" s="126"/>
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -6618,7 +6618,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="125"/>
+      <c r="A13" s="126"/>
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="125"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="9">
         <v>5</v>
       </c>
@@ -6864,7 +6864,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="125"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="9">
         <v>6</v>
       </c>
@@ -6987,7 +6987,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="125"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="9">
         <v>7</v>
       </c>
@@ -7110,7 +7110,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="125"/>
+      <c r="A17" s="126"/>
       <c r="B17" s="9">
         <v>8</v>
       </c>
@@ -7233,7 +7233,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="125"/>
+      <c r="A18" s="126"/>
       <c r="B18" s="9">
         <v>9</v>
       </c>
@@ -7356,7 +7356,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="125"/>
+      <c r="A19" s="126"/>
       <c r="B19" s="9">
         <v>10</v>
       </c>
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="125"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="9">
         <v>11</v>
       </c>
@@ -7602,7 +7602,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="125"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="9">
         <v>12</v>
       </c>
@@ -7725,7 +7725,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="125"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="9">
         <v>13</v>
       </c>
@@ -7848,7 +7848,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="125"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="9">
         <v>14</v>
       </c>
@@ -7971,7 +7971,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="125"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="9">
         <v>15</v>
       </c>
@@ -8094,7 +8094,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="125"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="9">
         <v>16</v>
       </c>
@@ -8217,7 +8217,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="125"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="9">
         <v>17</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="9">
         <v>18</v>
       </c>
@@ -8463,7 +8463,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="125"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="9">
         <v>19</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="9">
         <v>20</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="125"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="9">
         <v>21</v>
       </c>
@@ -8832,7 +8832,7 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A31" s="125"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="9">
         <v>22</v>
       </c>
@@ -8955,7 +8955,7 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A32" s="125"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="9">
         <v>23</v>
       </c>
@@ -9078,7 +9078,7 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A33" s="125"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="9">
         <v>24</v>
       </c>
@@ -9201,7 +9201,7 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A34" s="125"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="9">
         <v>25</v>
       </c>
@@ -9324,7 +9324,7 @@
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A35" s="125"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="9">
         <v>26</v>
       </c>
@@ -9447,7 +9447,7 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A36" s="125"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="9">
         <v>27</v>
       </c>
@@ -9570,7 +9570,7 @@
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A37" s="125"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="9">
         <v>28</v>
       </c>
@@ -9693,7 +9693,7 @@
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A38" s="125"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="9">
         <v>29</v>
       </c>
@@ -9816,7 +9816,7 @@
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="9">
         <v>30</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="9">
         <v>31</v>
       </c>
@@ -10062,7 +10062,7 @@
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="9">
         <v>32</v>
       </c>
@@ -10185,7 +10185,7 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A42" s="125"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="9">
         <v>33</v>
       </c>
@@ -10308,7 +10308,7 @@
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A43" s="125"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="9">
         <v>34</v>
       </c>
@@ -10431,7 +10431,7 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A44" s="125"/>
+      <c r="A44" s="126"/>
       <c r="B44" s="9">
         <v>35</v>
       </c>
@@ -10554,7 +10554,7 @@
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A45" s="125"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="9">
         <v>36</v>
       </c>
@@ -10677,7 +10677,7 @@
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A46" s="125"/>
+      <c r="A46" s="126"/>
       <c r="B46" s="9">
         <v>37</v>
       </c>
@@ -10800,7 +10800,7 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A47" s="125"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="9">
         <v>38</v>
       </c>
@@ -10923,7 +10923,7 @@
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A48" s="125"/>
+      <c r="A48" s="126"/>
       <c r="B48" s="9">
         <v>39</v>
       </c>
@@ -11046,7 +11046,7 @@
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A49" s="125"/>
+      <c r="A49" s="126"/>
       <c r="B49" s="9">
         <v>40</v>
       </c>
@@ -11169,7 +11169,7 @@
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A50" s="125"/>
+      <c r="A50" s="126"/>
       <c r="B50" s="9">
         <v>41</v>
       </c>
@@ -11292,7 +11292,7 @@
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A51" s="125"/>
+      <c r="A51" s="126"/>
       <c r="B51" s="9">
         <v>42</v>
       </c>
@@ -11415,7 +11415,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A52" s="125"/>
+      <c r="A52" s="126"/>
       <c r="B52" s="9">
         <v>43</v>
       </c>
@@ -11538,7 +11538,7 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A53" s="125"/>
+      <c r="A53" s="126"/>
       <c r="B53" s="9">
         <v>44</v>
       </c>
@@ -11661,7 +11661,7 @@
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A54" s="125"/>
+      <c r="A54" s="126"/>
       <c r="B54" s="9">
         <v>45</v>
       </c>
@@ -11784,7 +11784,7 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A55" s="125"/>
+      <c r="A55" s="126"/>
       <c r="B55" s="9">
         <v>46</v>
       </c>
@@ -11907,7 +11907,7 @@
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A56" s="125"/>
+      <c r="A56" s="126"/>
       <c r="B56" s="9">
         <v>47</v>
       </c>
@@ -12030,7 +12030,7 @@
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A57" s="125"/>
+      <c r="A57" s="126"/>
       <c r="B57" s="9">
         <v>48</v>
       </c>
@@ -12153,7 +12153,7 @@
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A58" s="125"/>
+      <c r="A58" s="126"/>
       <c r="B58" s="9">
         <v>49</v>
       </c>
@@ -12276,7 +12276,7 @@
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A59" s="125"/>
+      <c r="A59" s="126"/>
       <c r="B59" s="9">
         <v>50</v>
       </c>
@@ -12399,7 +12399,7 @@
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A60" s="125"/>
+      <c r="A60" s="126"/>
       <c r="B60" s="9">
         <v>51</v>
       </c>
@@ -12522,7 +12522,7 @@
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A61" s="125"/>
+      <c r="A61" s="126"/>
       <c r="B61" s="9">
         <v>52</v>
       </c>
@@ -12645,7 +12645,7 @@
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A62" s="125"/>
+      <c r="A62" s="126"/>
       <c r="B62" s="9">
         <v>53</v>
       </c>
@@ -12768,7 +12768,7 @@
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A63" s="125"/>
+      <c r="A63" s="126"/>
       <c r="B63" s="9">
         <v>54</v>
       </c>
@@ -12891,7 +12891,7 @@
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A64" s="125"/>
+      <c r="A64" s="126"/>
       <c r="B64" s="9">
         <v>55</v>
       </c>
@@ -13014,7 +13014,7 @@
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A65" s="125"/>
+      <c r="A65" s="126"/>
       <c r="B65" s="9">
         <v>56</v>
       </c>
@@ -13137,7 +13137,7 @@
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A66" s="125"/>
+      <c r="A66" s="126"/>
       <c r="B66" s="9">
         <v>57</v>
       </c>
@@ -13260,7 +13260,7 @@
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A67" s="125"/>
+      <c r="A67" s="126"/>
       <c r="B67" s="9">
         <v>58</v>
       </c>
@@ -13383,7 +13383,7 @@
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A68" s="125"/>
+      <c r="A68" s="126"/>
       <c r="B68" s="9">
         <v>59</v>
       </c>
@@ -13506,7 +13506,7 @@
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A69" s="125"/>
+      <c r="A69" s="126"/>
       <c r="B69" s="9">
         <v>60</v>
       </c>
@@ -13629,7 +13629,7 @@
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A70" s="125"/>
+      <c r="A70" s="126"/>
       <c r="B70" s="9">
         <v>61</v>
       </c>
@@ -13752,7 +13752,7 @@
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A71" s="125"/>
+      <c r="A71" s="126"/>
       <c r="B71" s="9">
         <v>62</v>
       </c>
@@ -13875,7 +13875,7 @@
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A72" s="125"/>
+      <c r="A72" s="126"/>
       <c r="B72" s="9">
         <v>63</v>
       </c>
@@ -13998,7 +13998,7 @@
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A73" s="125"/>
+      <c r="A73" s="126"/>
       <c r="B73" s="9">
         <v>64</v>
       </c>
@@ -14121,7 +14121,7 @@
       </c>
     </row>
     <row r="74" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A74" s="125"/>
+      <c r="A74" s="126"/>
       <c r="B74" s="9">
         <v>65</v>
       </c>
@@ -14244,7 +14244,7 @@
       </c>
     </row>
     <row r="75" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A75" s="125"/>
+      <c r="A75" s="126"/>
       <c r="B75" s="9">
         <v>66</v>
       </c>
@@ -14367,7 +14367,7 @@
       </c>
     </row>
     <row r="76" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A76" s="125"/>
+      <c r="A76" s="126"/>
       <c r="B76" s="9">
         <v>67</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
     </row>
     <row r="77" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A77" s="125"/>
+      <c r="A77" s="126"/>
       <c r="B77" s="9">
         <v>68</v>
       </c>
@@ -14613,7 +14613,7 @@
       </c>
     </row>
     <row r="78" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A78" s="125"/>
+      <c r="A78" s="126"/>
       <c r="B78" s="9">
         <v>69</v>
       </c>
@@ -14736,7 +14736,7 @@
       </c>
     </row>
     <row r="79" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A79" s="125"/>
+      <c r="A79" s="126"/>
       <c r="B79" s="9">
         <v>70</v>
       </c>
@@ -14859,7 +14859,7 @@
       </c>
     </row>
     <row r="80" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A80" s="125"/>
+      <c r="A80" s="126"/>
       <c r="B80" s="9">
         <v>71</v>
       </c>
@@ -14982,7 +14982,7 @@
       </c>
     </row>
     <row r="81" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A81" s="125"/>
+      <c r="A81" s="126"/>
       <c r="B81" s="9">
         <v>72</v>
       </c>
@@ -15105,7 +15105,7 @@
       </c>
     </row>
     <row r="82" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A82" s="125"/>
+      <c r="A82" s="126"/>
       <c r="B82" s="9">
         <v>73</v>
       </c>
@@ -15228,7 +15228,7 @@
       </c>
     </row>
     <row r="83" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A83" s="125"/>
+      <c r="A83" s="126"/>
       <c r="B83" s="9">
         <v>74</v>
       </c>
@@ -15351,7 +15351,7 @@
       </c>
     </row>
     <row r="84" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A84" s="125"/>
+      <c r="A84" s="126"/>
       <c r="B84" s="9">
         <v>75</v>
       </c>
@@ -15474,7 +15474,7 @@
       </c>
     </row>
     <row r="85" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A85" s="125"/>
+      <c r="A85" s="126"/>
       <c r="B85" s="9">
         <v>76</v>
       </c>
@@ -15597,7 +15597,7 @@
       </c>
     </row>
     <row r="86" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A86" s="125"/>
+      <c r="A86" s="126"/>
       <c r="B86" s="9">
         <v>77</v>
       </c>
@@ -15720,7 +15720,7 @@
       </c>
     </row>
     <row r="87" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A87" s="125"/>
+      <c r="A87" s="126"/>
       <c r="B87" s="9">
         <v>78</v>
       </c>
@@ -15843,7 +15843,7 @@
       </c>
     </row>
     <row r="88" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A88" s="125"/>
+      <c r="A88" s="126"/>
       <c r="B88" s="9">
         <v>79</v>
       </c>
@@ -15966,7 +15966,7 @@
       </c>
     </row>
     <row r="89" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A89" s="125"/>
+      <c r="A89" s="126"/>
       <c r="B89" s="9">
         <v>80</v>
       </c>
@@ -16089,7 +16089,7 @@
       </c>
     </row>
     <row r="90" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A90" s="125"/>
+      <c r="A90" s="126"/>
       <c r="B90" s="9">
         <v>81</v>
       </c>
@@ -16212,7 +16212,7 @@
       </c>
     </row>
     <row r="91" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A91" s="125"/>
+      <c r="A91" s="126"/>
       <c r="B91" s="9">
         <v>82</v>
       </c>
@@ -16335,7 +16335,7 @@
       </c>
     </row>
     <row r="92" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A92" s="125"/>
+      <c r="A92" s="126"/>
       <c r="B92" s="9">
         <v>83</v>
       </c>
@@ -16458,7 +16458,7 @@
       </c>
     </row>
     <row r="93" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A93" s="125"/>
+      <c r="A93" s="126"/>
       <c r="B93" s="9">
         <v>84</v>
       </c>
@@ -16581,7 +16581,7 @@
       </c>
     </row>
     <row r="94" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A94" s="125"/>
+      <c r="A94" s="126"/>
       <c r="B94" s="9">
         <v>85</v>
       </c>
@@ -16704,7 +16704,7 @@
       </c>
     </row>
     <row r="95" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A95" s="125"/>
+      <c r="A95" s="126"/>
       <c r="B95" s="9">
         <v>86</v>
       </c>
@@ -16827,7 +16827,7 @@
       </c>
     </row>
     <row r="96" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A96" s="125"/>
+      <c r="A96" s="126"/>
       <c r="B96" s="9">
         <v>87</v>
       </c>
@@ -16950,7 +16950,7 @@
       </c>
     </row>
     <row r="97" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A97" s="125"/>
+      <c r="A97" s="126"/>
       <c r="B97" s="9">
         <v>88</v>
       </c>
@@ -17073,7 +17073,7 @@
       </c>
     </row>
     <row r="98" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A98" s="125"/>
+      <c r="A98" s="126"/>
       <c r="B98" s="9">
         <v>89</v>
       </c>
@@ -17196,7 +17196,7 @@
       </c>
     </row>
     <row r="99" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A99" s="125"/>
+      <c r="A99" s="126"/>
       <c r="B99" s="9">
         <v>90</v>
       </c>
@@ -17319,7 +17319,7 @@
       </c>
     </row>
     <row r="100" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A100" s="125"/>
+      <c r="A100" s="126"/>
       <c r="B100" s="9">
         <v>91</v>
       </c>
@@ -17442,7 +17442,7 @@
       </c>
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A101" s="125"/>
+      <c r="A101" s="126"/>
       <c r="B101" s="9">
         <v>92</v>
       </c>
@@ -17565,7 +17565,7 @@
       </c>
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A102" s="125"/>
+      <c r="A102" s="126"/>
       <c r="B102" s="9">
         <v>93</v>
       </c>
@@ -17688,7 +17688,7 @@
       </c>
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A103" s="125"/>
+      <c r="A103" s="126"/>
       <c r="B103" s="9">
         <v>94</v>
       </c>
@@ -17811,7 +17811,7 @@
       </c>
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A104" s="125"/>
+      <c r="A104" s="126"/>
       <c r="B104" s="9">
         <v>95</v>
       </c>
@@ -17934,7 +17934,7 @@
       </c>
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A105" s="125"/>
+      <c r="A105" s="126"/>
       <c r="B105" s="9">
         <v>96</v>
       </c>
@@ -18057,7 +18057,7 @@
       </c>
     </row>
     <row r="106" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A106" s="125"/>
+      <c r="A106" s="126"/>
       <c r="B106" s="9">
         <v>97</v>
       </c>
@@ -18180,7 +18180,7 @@
       </c>
     </row>
     <row r="107" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A107" s="125"/>
+      <c r="A107" s="126"/>
       <c r="B107" s="9">
         <v>98</v>
       </c>
@@ -18303,7 +18303,7 @@
       </c>
     </row>
     <row r="108" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A108" s="125"/>
+      <c r="A108" s="126"/>
       <c r="B108" s="9">
         <v>99</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
     </row>
     <row r="109" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A109" s="125"/>
+      <c r="A109" s="126"/>
       <c r="B109" s="9" t="s">
         <v>79</v>
       </c>
@@ -18549,7 +18549,7 @@
       </c>
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A110" s="126" t="s">
+      <c r="A110" s="127" t="s">
         <v>50</v>
       </c>
       <c r="B110" s="71" t="s">
@@ -18674,7 +18674,7 @@
       </c>
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A111" s="125"/>
+      <c r="A111" s="126"/>
       <c r="B111" s="9">
         <v>0</v>
       </c>
@@ -18797,7 +18797,7 @@
       </c>
     </row>
     <row r="112" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A112" s="125"/>
+      <c r="A112" s="126"/>
       <c r="B112" s="9">
         <v>1</v>
       </c>
@@ -18920,7 +18920,7 @@
       </c>
     </row>
     <row r="113" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A113" s="125"/>
+      <c r="A113" s="126"/>
       <c r="B113" s="9">
         <v>2</v>
       </c>
@@ -19043,7 +19043,7 @@
       </c>
     </row>
     <row r="114" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A114" s="125"/>
+      <c r="A114" s="126"/>
       <c r="B114" s="9">
         <v>3</v>
       </c>
@@ -19166,7 +19166,7 @@
       </c>
     </row>
     <row r="115" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A115" s="125"/>
+      <c r="A115" s="126"/>
       <c r="B115" s="9">
         <v>4</v>
       </c>
@@ -19289,7 +19289,7 @@
       </c>
     </row>
     <row r="116" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A116" s="125"/>
+      <c r="A116" s="126"/>
       <c r="B116" s="9">
         <v>5</v>
       </c>
@@ -19412,7 +19412,7 @@
       </c>
     </row>
     <row r="117" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A117" s="125"/>
+      <c r="A117" s="126"/>
       <c r="B117" s="9">
         <v>6</v>
       </c>
@@ -19535,7 +19535,7 @@
       </c>
     </row>
     <row r="118" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A118" s="125"/>
+      <c r="A118" s="126"/>
       <c r="B118" s="9">
         <v>7</v>
       </c>
@@ -19658,7 +19658,7 @@
       </c>
     </row>
     <row r="119" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A119" s="125"/>
+      <c r="A119" s="126"/>
       <c r="B119" s="9">
         <v>8</v>
       </c>
@@ -19781,7 +19781,7 @@
       </c>
     </row>
     <row r="120" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A120" s="125"/>
+      <c r="A120" s="126"/>
       <c r="B120" s="9">
         <v>9</v>
       </c>
@@ -19904,7 +19904,7 @@
       </c>
     </row>
     <row r="121" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A121" s="125"/>
+      <c r="A121" s="126"/>
       <c r="B121" s="9">
         <v>10</v>
       </c>
@@ -20027,7 +20027,7 @@
       </c>
     </row>
     <row r="122" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A122" s="125"/>
+      <c r="A122" s="126"/>
       <c r="B122" s="9">
         <v>11</v>
       </c>
@@ -20150,7 +20150,7 @@
       </c>
     </row>
     <row r="123" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A123" s="125"/>
+      <c r="A123" s="126"/>
       <c r="B123" s="9">
         <v>12</v>
       </c>
@@ -20273,7 +20273,7 @@
       </c>
     </row>
     <row r="124" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A124" s="125"/>
+      <c r="A124" s="126"/>
       <c r="B124" s="9">
         <v>13</v>
       </c>
@@ -20396,7 +20396,7 @@
       </c>
     </row>
     <row r="125" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A125" s="125"/>
+      <c r="A125" s="126"/>
       <c r="B125" s="9">
         <v>14</v>
       </c>
@@ -20519,7 +20519,7 @@
       </c>
     </row>
     <row r="126" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A126" s="125"/>
+      <c r="A126" s="126"/>
       <c r="B126" s="9">
         <v>15</v>
       </c>
@@ -20642,7 +20642,7 @@
       </c>
     </row>
     <row r="127" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A127" s="125"/>
+      <c r="A127" s="126"/>
       <c r="B127" s="9">
         <v>16</v>
       </c>
@@ -20765,7 +20765,7 @@
       </c>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A128" s="125"/>
+      <c r="A128" s="126"/>
       <c r="B128" s="9">
         <v>17</v>
       </c>
@@ -20888,7 +20888,7 @@
       </c>
     </row>
     <row r="129" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A129" s="125"/>
+      <c r="A129" s="126"/>
       <c r="B129" s="9">
         <v>18</v>
       </c>
@@ -21011,7 +21011,7 @@
       </c>
     </row>
     <row r="130" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A130" s="125"/>
+      <c r="A130" s="126"/>
       <c r="B130" s="9">
         <v>19</v>
       </c>
@@ -21134,7 +21134,7 @@
       </c>
     </row>
     <row r="131" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A131" s="125"/>
+      <c r="A131" s="126"/>
       <c r="B131" s="9">
         <v>20</v>
       </c>
@@ -21257,7 +21257,7 @@
       </c>
     </row>
     <row r="132" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A132" s="125"/>
+      <c r="A132" s="126"/>
       <c r="B132" s="9">
         <v>21</v>
       </c>
@@ -21380,7 +21380,7 @@
       </c>
     </row>
     <row r="133" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A133" s="125"/>
+      <c r="A133" s="126"/>
       <c r="B133" s="9">
         <v>22</v>
       </c>
@@ -21503,7 +21503,7 @@
       </c>
     </row>
     <row r="134" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A134" s="125"/>
+      <c r="A134" s="126"/>
       <c r="B134" s="9">
         <v>23</v>
       </c>
@@ -21626,7 +21626,7 @@
       </c>
     </row>
     <row r="135" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A135" s="125"/>
+      <c r="A135" s="126"/>
       <c r="B135" s="9">
         <v>24</v>
       </c>
@@ -21749,7 +21749,7 @@
       </c>
     </row>
     <row r="136" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A136" s="125"/>
+      <c r="A136" s="126"/>
       <c r="B136" s="9">
         <v>25</v>
       </c>
@@ -21872,7 +21872,7 @@
       </c>
     </row>
     <row r="137" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A137" s="125"/>
+      <c r="A137" s="126"/>
       <c r="B137" s="9">
         <v>26</v>
       </c>
@@ -21995,7 +21995,7 @@
       </c>
     </row>
     <row r="138" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A138" s="125"/>
+      <c r="A138" s="126"/>
       <c r="B138" s="9">
         <v>27</v>
       </c>
@@ -22118,7 +22118,7 @@
       </c>
     </row>
     <row r="139" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A139" s="125"/>
+      <c r="A139" s="126"/>
       <c r="B139" s="9">
         <v>28</v>
       </c>
@@ -22241,7 +22241,7 @@
       </c>
     </row>
     <row r="140" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A140" s="125"/>
+      <c r="A140" s="126"/>
       <c r="B140" s="9">
         <v>29</v>
       </c>
@@ -22364,7 +22364,7 @@
       </c>
     </row>
     <row r="141" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A141" s="125"/>
+      <c r="A141" s="126"/>
       <c r="B141" s="9">
         <v>30</v>
       </c>
@@ -22487,7 +22487,7 @@
       </c>
     </row>
     <row r="142" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A142" s="125"/>
+      <c r="A142" s="126"/>
       <c r="B142" s="9">
         <v>31</v>
       </c>
@@ -22610,7 +22610,7 @@
       </c>
     </row>
     <row r="143" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A143" s="125"/>
+      <c r="A143" s="126"/>
       <c r="B143" s="9">
         <v>32</v>
       </c>
@@ -22733,7 +22733,7 @@
       </c>
     </row>
     <row r="144" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A144" s="125"/>
+      <c r="A144" s="126"/>
       <c r="B144" s="9">
         <v>33</v>
       </c>
@@ -22856,7 +22856,7 @@
       </c>
     </row>
     <row r="145" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A145" s="125"/>
+      <c r="A145" s="126"/>
       <c r="B145" s="9">
         <v>34</v>
       </c>
@@ -22979,7 +22979,7 @@
       </c>
     </row>
     <row r="146" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A146" s="125"/>
+      <c r="A146" s="126"/>
       <c r="B146" s="9">
         <v>35</v>
       </c>
@@ -23102,7 +23102,7 @@
       </c>
     </row>
     <row r="147" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A147" s="125"/>
+      <c r="A147" s="126"/>
       <c r="B147" s="9">
         <v>36</v>
       </c>
@@ -23225,7 +23225,7 @@
       </c>
     </row>
     <row r="148" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A148" s="125"/>
+      <c r="A148" s="126"/>
       <c r="B148" s="9">
         <v>37</v>
       </c>
@@ -23348,7 +23348,7 @@
       </c>
     </row>
     <row r="149" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A149" s="125"/>
+      <c r="A149" s="126"/>
       <c r="B149" s="9">
         <v>38</v>
       </c>
@@ -23471,7 +23471,7 @@
       </c>
     </row>
     <row r="150" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A150" s="125"/>
+      <c r="A150" s="126"/>
       <c r="B150" s="9">
         <v>39</v>
       </c>
@@ -23594,7 +23594,7 @@
       </c>
     </row>
     <row r="151" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A151" s="125"/>
+      <c r="A151" s="126"/>
       <c r="B151" s="9">
         <v>40</v>
       </c>
@@ -23717,7 +23717,7 @@
       </c>
     </row>
     <row r="152" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A152" s="125"/>
+      <c r="A152" s="126"/>
       <c r="B152" s="9">
         <v>41</v>
       </c>
@@ -23840,7 +23840,7 @@
       </c>
     </row>
     <row r="153" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A153" s="125"/>
+      <c r="A153" s="126"/>
       <c r="B153" s="9">
         <v>42</v>
       </c>
@@ -23963,7 +23963,7 @@
       </c>
     </row>
     <row r="154" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A154" s="125"/>
+      <c r="A154" s="126"/>
       <c r="B154" s="9">
         <v>43</v>
       </c>
@@ -24086,7 +24086,7 @@
       </c>
     </row>
     <row r="155" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A155" s="125"/>
+      <c r="A155" s="126"/>
       <c r="B155" s="9">
         <v>44</v>
       </c>
@@ -24209,7 +24209,7 @@
       </c>
     </row>
     <row r="156" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A156" s="125"/>
+      <c r="A156" s="126"/>
       <c r="B156" s="9">
         <v>45</v>
       </c>
@@ -24332,7 +24332,7 @@
       </c>
     </row>
     <row r="157" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A157" s="125"/>
+      <c r="A157" s="126"/>
       <c r="B157" s="9">
         <v>46</v>
       </c>
@@ -24455,7 +24455,7 @@
       </c>
     </row>
     <row r="158" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A158" s="125"/>
+      <c r="A158" s="126"/>
       <c r="B158" s="9">
         <v>47</v>
       </c>
@@ -24578,7 +24578,7 @@
       </c>
     </row>
     <row r="159" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A159" s="125"/>
+      <c r="A159" s="126"/>
       <c r="B159" s="9">
         <v>48</v>
       </c>
@@ -24701,7 +24701,7 @@
       </c>
     </row>
     <row r="160" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A160" s="125"/>
+      <c r="A160" s="126"/>
       <c r="B160" s="9">
         <v>49</v>
       </c>
@@ -24824,7 +24824,7 @@
       </c>
     </row>
     <row r="161" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A161" s="125"/>
+      <c r="A161" s="126"/>
       <c r="B161" s="9">
         <v>50</v>
       </c>
@@ -24947,7 +24947,7 @@
       </c>
     </row>
     <row r="162" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A162" s="125"/>
+      <c r="A162" s="126"/>
       <c r="B162" s="9">
         <v>51</v>
       </c>
@@ -25070,7 +25070,7 @@
       </c>
     </row>
     <row r="163" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A163" s="125"/>
+      <c r="A163" s="126"/>
       <c r="B163" s="9">
         <v>52</v>
       </c>
@@ -25193,7 +25193,7 @@
       </c>
     </row>
     <row r="164" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A164" s="125"/>
+      <c r="A164" s="126"/>
       <c r="B164" s="9">
         <v>53</v>
       </c>
@@ -25316,7 +25316,7 @@
       </c>
     </row>
     <row r="165" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A165" s="125"/>
+      <c r="A165" s="126"/>
       <c r="B165" s="9">
         <v>54</v>
       </c>
@@ -25439,7 +25439,7 @@
       </c>
     </row>
     <row r="166" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A166" s="125"/>
+      <c r="A166" s="126"/>
       <c r="B166" s="9">
         <v>55</v>
       </c>
@@ -25562,7 +25562,7 @@
       </c>
     </row>
     <row r="167" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A167" s="125"/>
+      <c r="A167" s="126"/>
       <c r="B167" s="9">
         <v>56</v>
       </c>
@@ -25685,7 +25685,7 @@
       </c>
     </row>
     <row r="168" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A168" s="125"/>
+      <c r="A168" s="126"/>
       <c r="B168" s="9">
         <v>57</v>
       </c>
@@ -25808,7 +25808,7 @@
       </c>
     </row>
     <row r="169" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A169" s="125"/>
+      <c r="A169" s="126"/>
       <c r="B169" s="9">
         <v>58</v>
       </c>
@@ -25931,7 +25931,7 @@
       </c>
     </row>
     <row r="170" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A170" s="125"/>
+      <c r="A170" s="126"/>
       <c r="B170" s="9">
         <v>59</v>
       </c>
@@ -26054,7 +26054,7 @@
       </c>
     </row>
     <row r="171" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A171" s="125"/>
+      <c r="A171" s="126"/>
       <c r="B171" s="9">
         <v>60</v>
       </c>
@@ -26177,7 +26177,7 @@
       </c>
     </row>
     <row r="172" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A172" s="125"/>
+      <c r="A172" s="126"/>
       <c r="B172" s="9">
         <v>61</v>
       </c>
@@ -26300,7 +26300,7 @@
       </c>
     </row>
     <row r="173" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A173" s="125"/>
+      <c r="A173" s="126"/>
       <c r="B173" s="9">
         <v>62</v>
       </c>
@@ -26423,7 +26423,7 @@
       </c>
     </row>
     <row r="174" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A174" s="125"/>
+      <c r="A174" s="126"/>
       <c r="B174" s="9">
         <v>63</v>
       </c>
@@ -26546,7 +26546,7 @@
       </c>
     </row>
     <row r="175" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A175" s="125"/>
+      <c r="A175" s="126"/>
       <c r="B175" s="9">
         <v>64</v>
       </c>
@@ -26669,7 +26669,7 @@
       </c>
     </row>
     <row r="176" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A176" s="125"/>
+      <c r="A176" s="126"/>
       <c r="B176" s="9">
         <v>65</v>
       </c>
@@ -26792,7 +26792,7 @@
       </c>
     </row>
     <row r="177" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A177" s="125"/>
+      <c r="A177" s="126"/>
       <c r="B177" s="9">
         <v>66</v>
       </c>
@@ -26915,7 +26915,7 @@
       </c>
     </row>
     <row r="178" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A178" s="125"/>
+      <c r="A178" s="126"/>
       <c r="B178" s="9">
         <v>67</v>
       </c>
@@ -27038,7 +27038,7 @@
       </c>
     </row>
     <row r="179" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A179" s="125"/>
+      <c r="A179" s="126"/>
       <c r="B179" s="9">
         <v>68</v>
       </c>
@@ -27161,7 +27161,7 @@
       </c>
     </row>
     <row r="180" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A180" s="125"/>
+      <c r="A180" s="126"/>
       <c r="B180" s="9">
         <v>69</v>
       </c>
@@ -27284,7 +27284,7 @@
       </c>
     </row>
     <row r="181" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A181" s="125"/>
+      <c r="A181" s="126"/>
       <c r="B181" s="9">
         <v>70</v>
       </c>
@@ -27407,7 +27407,7 @@
       </c>
     </row>
     <row r="182" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A182" s="125"/>
+      <c r="A182" s="126"/>
       <c r="B182" s="9">
         <v>71</v>
       </c>
@@ -27530,7 +27530,7 @@
       </c>
     </row>
     <row r="183" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A183" s="125"/>
+      <c r="A183" s="126"/>
       <c r="B183" s="9">
         <v>72</v>
       </c>
@@ -27653,7 +27653,7 @@
       </c>
     </row>
     <row r="184" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A184" s="125"/>
+      <c r="A184" s="126"/>
       <c r="B184" s="9">
         <v>73</v>
       </c>
@@ -27776,7 +27776,7 @@
       </c>
     </row>
     <row r="185" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A185" s="125"/>
+      <c r="A185" s="126"/>
       <c r="B185" s="9">
         <v>74</v>
       </c>
@@ -27899,7 +27899,7 @@
       </c>
     </row>
     <row r="186" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A186" s="125"/>
+      <c r="A186" s="126"/>
       <c r="B186" s="9">
         <v>75</v>
       </c>
@@ -28022,7 +28022,7 @@
       </c>
     </row>
     <row r="187" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A187" s="125"/>
+      <c r="A187" s="126"/>
       <c r="B187" s="9">
         <v>76</v>
       </c>
@@ -28145,7 +28145,7 @@
       </c>
     </row>
     <row r="188" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A188" s="125"/>
+      <c r="A188" s="126"/>
       <c r="B188" s="9">
         <v>77</v>
       </c>
@@ -28268,7 +28268,7 @@
       </c>
     </row>
     <row r="189" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A189" s="125"/>
+      <c r="A189" s="126"/>
       <c r="B189" s="9">
         <v>78</v>
       </c>
@@ -28391,7 +28391,7 @@
       </c>
     </row>
     <row r="190" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A190" s="125"/>
+      <c r="A190" s="126"/>
       <c r="B190" s="9">
         <v>79</v>
       </c>
@@ -28514,7 +28514,7 @@
       </c>
     </row>
     <row r="191" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A191" s="125"/>
+      <c r="A191" s="126"/>
       <c r="B191" s="9">
         <v>80</v>
       </c>
@@ -28637,7 +28637,7 @@
       </c>
     </row>
     <row r="192" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A192" s="125"/>
+      <c r="A192" s="126"/>
       <c r="B192" s="9">
         <v>81</v>
       </c>
@@ -28760,7 +28760,7 @@
       </c>
     </row>
     <row r="193" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A193" s="125"/>
+      <c r="A193" s="126"/>
       <c r="B193" s="9">
         <v>82</v>
       </c>
@@ -28883,7 +28883,7 @@
       </c>
     </row>
     <row r="194" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A194" s="125"/>
+      <c r="A194" s="126"/>
       <c r="B194" s="9">
         <v>83</v>
       </c>
@@ -29006,7 +29006,7 @@
       </c>
     </row>
     <row r="195" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A195" s="125"/>
+      <c r="A195" s="126"/>
       <c r="B195" s="9">
         <v>84</v>
       </c>
@@ -29129,7 +29129,7 @@
       </c>
     </row>
     <row r="196" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A196" s="125"/>
+      <c r="A196" s="126"/>
       <c r="B196" s="9">
         <v>85</v>
       </c>
@@ -29252,7 +29252,7 @@
       </c>
     </row>
     <row r="197" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A197" s="125"/>
+      <c r="A197" s="126"/>
       <c r="B197" s="9">
         <v>86</v>
       </c>
@@ -29375,7 +29375,7 @@
       </c>
     </row>
     <row r="198" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A198" s="125"/>
+      <c r="A198" s="126"/>
       <c r="B198" s="9">
         <v>87</v>
       </c>
@@ -29498,7 +29498,7 @@
       </c>
     </row>
     <row r="199" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A199" s="125"/>
+      <c r="A199" s="126"/>
       <c r="B199" s="9">
         <v>88</v>
       </c>
@@ -29621,7 +29621,7 @@
       </c>
     </row>
     <row r="200" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A200" s="125"/>
+      <c r="A200" s="126"/>
       <c r="B200" s="9">
         <v>89</v>
       </c>
@@ -29744,7 +29744,7 @@
       </c>
     </row>
     <row r="201" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A201" s="125"/>
+      <c r="A201" s="126"/>
       <c r="B201" s="9">
         <v>90</v>
       </c>
@@ -29867,7 +29867,7 @@
       </c>
     </row>
     <row r="202" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A202" s="125"/>
+      <c r="A202" s="126"/>
       <c r="B202" s="9">
         <v>91</v>
       </c>
@@ -29990,7 +29990,7 @@
       </c>
     </row>
     <row r="203" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A203" s="125"/>
+      <c r="A203" s="126"/>
       <c r="B203" s="9">
         <v>92</v>
       </c>
@@ -30113,7 +30113,7 @@
       </c>
     </row>
     <row r="204" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A204" s="125"/>
+      <c r="A204" s="126"/>
       <c r="B204" s="9">
         <v>93</v>
       </c>
@@ -30236,7 +30236,7 @@
       </c>
     </row>
     <row r="205" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A205" s="125"/>
+      <c r="A205" s="126"/>
       <c r="B205" s="9">
         <v>94</v>
       </c>
@@ -30359,7 +30359,7 @@
       </c>
     </row>
     <row r="206" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A206" s="125"/>
+      <c r="A206" s="126"/>
       <c r="B206" s="9">
         <v>95</v>
       </c>
@@ -30482,7 +30482,7 @@
       </c>
     </row>
     <row r="207" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A207" s="125"/>
+      <c r="A207" s="126"/>
       <c r="B207" s="9">
         <v>96</v>
       </c>
@@ -30605,7 +30605,7 @@
       </c>
     </row>
     <row r="208" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A208" s="125"/>
+      <c r="A208" s="126"/>
       <c r="B208" s="9">
         <v>97</v>
       </c>
@@ -30728,7 +30728,7 @@
       </c>
     </row>
     <row r="209" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A209" s="125"/>
+      <c r="A209" s="126"/>
       <c r="B209" s="9">
         <v>98</v>
       </c>
@@ -30851,7 +30851,7 @@
       </c>
     </row>
     <row r="210" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A210" s="125"/>
+      <c r="A210" s="126"/>
       <c r="B210" s="9">
         <v>99</v>
       </c>
@@ -30974,7 +30974,7 @@
       </c>
     </row>
     <row r="211" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A211" s="125"/>
+      <c r="A211" s="126"/>
       <c r="B211" s="9" t="s">
         <v>79</v>
       </c>
@@ -31097,7 +31097,7 @@
       </c>
     </row>
     <row r="212" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A212" s="125" t="s">
+      <c r="A212" s="126" t="s">
         <v>51</v>
       </c>
       <c r="B212" s="71" t="s">
@@ -31222,7 +31222,7 @@
       </c>
     </row>
     <row r="213" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A213" s="125"/>
+      <c r="A213" s="126"/>
       <c r="B213" s="9">
         <v>0</v>
       </c>
@@ -31345,7 +31345,7 @@
       </c>
     </row>
     <row r="214" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A214" s="125"/>
+      <c r="A214" s="126"/>
       <c r="B214" s="9">
         <v>1</v>
       </c>
@@ -31468,7 +31468,7 @@
       </c>
     </row>
     <row r="215" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A215" s="125"/>
+      <c r="A215" s="126"/>
       <c r="B215" s="9">
         <v>2</v>
       </c>
@@ -31591,7 +31591,7 @@
       </c>
     </row>
     <row r="216" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A216" s="125"/>
+      <c r="A216" s="126"/>
       <c r="B216" s="9">
         <v>3</v>
       </c>
@@ -31714,7 +31714,7 @@
       </c>
     </row>
     <row r="217" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A217" s="125"/>
+      <c r="A217" s="126"/>
       <c r="B217" s="9">
         <v>4</v>
       </c>
@@ -31837,7 +31837,7 @@
       </c>
     </row>
     <row r="218" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A218" s="125"/>
+      <c r="A218" s="126"/>
       <c r="B218" s="9">
         <v>5</v>
       </c>
@@ -31960,7 +31960,7 @@
       </c>
     </row>
     <row r="219" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A219" s="125"/>
+      <c r="A219" s="126"/>
       <c r="B219" s="9">
         <v>6</v>
       </c>
@@ -32083,7 +32083,7 @@
       </c>
     </row>
     <row r="220" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A220" s="125"/>
+      <c r="A220" s="126"/>
       <c r="B220" s="9">
         <v>7</v>
       </c>
@@ -32206,7 +32206,7 @@
       </c>
     </row>
     <row r="221" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A221" s="125"/>
+      <c r="A221" s="126"/>
       <c r="B221" s="9">
         <v>8</v>
       </c>
@@ -32329,7 +32329,7 @@
       </c>
     </row>
     <row r="222" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A222" s="125"/>
+      <c r="A222" s="126"/>
       <c r="B222" s="9">
         <v>9</v>
       </c>
@@ -32452,7 +32452,7 @@
       </c>
     </row>
     <row r="223" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A223" s="125"/>
+      <c r="A223" s="126"/>
       <c r="B223" s="9">
         <v>10</v>
       </c>
@@ -32575,7 +32575,7 @@
       </c>
     </row>
     <row r="224" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A224" s="125"/>
+      <c r="A224" s="126"/>
       <c r="B224" s="9">
         <v>11</v>
       </c>
@@ -32698,7 +32698,7 @@
       </c>
     </row>
     <row r="225" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A225" s="125"/>
+      <c r="A225" s="126"/>
       <c r="B225" s="9">
         <v>12</v>
       </c>
@@ -32821,7 +32821,7 @@
       </c>
     </row>
     <row r="226" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A226" s="125"/>
+      <c r="A226" s="126"/>
       <c r="B226" s="9">
         <v>13</v>
       </c>
@@ -32944,7 +32944,7 @@
       </c>
     </row>
     <row r="227" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A227" s="125"/>
+      <c r="A227" s="126"/>
       <c r="B227" s="9">
         <v>14</v>
       </c>
@@ -33067,7 +33067,7 @@
       </c>
     </row>
     <row r="228" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A228" s="125"/>
+      <c r="A228" s="126"/>
       <c r="B228" s="9">
         <v>15</v>
       </c>
@@ -33190,7 +33190,7 @@
       </c>
     </row>
     <row r="229" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A229" s="125"/>
+      <c r="A229" s="126"/>
       <c r="B229" s="9">
         <v>16</v>
       </c>
@@ -33313,7 +33313,7 @@
       </c>
     </row>
     <row r="230" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A230" s="125"/>
+      <c r="A230" s="126"/>
       <c r="B230" s="9">
         <v>17</v>
       </c>
@@ -33436,7 +33436,7 @@
       </c>
     </row>
     <row r="231" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A231" s="125"/>
+      <c r="A231" s="126"/>
       <c r="B231" s="9">
         <v>18</v>
       </c>
@@ -33559,7 +33559,7 @@
       </c>
     </row>
     <row r="232" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A232" s="125"/>
+      <c r="A232" s="126"/>
       <c r="B232" s="9">
         <v>19</v>
       </c>
@@ -33682,7 +33682,7 @@
       </c>
     </row>
     <row r="233" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A233" s="125"/>
+      <c r="A233" s="126"/>
       <c r="B233" s="9">
         <v>20</v>
       </c>
@@ -33805,7 +33805,7 @@
       </c>
     </row>
     <row r="234" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A234" s="125"/>
+      <c r="A234" s="126"/>
       <c r="B234" s="9">
         <v>21</v>
       </c>
@@ -33928,7 +33928,7 @@
       </c>
     </row>
     <row r="235" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A235" s="125"/>
+      <c r="A235" s="126"/>
       <c r="B235" s="9">
         <v>22</v>
       </c>
@@ -34051,7 +34051,7 @@
       </c>
     </row>
     <row r="236" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A236" s="125"/>
+      <c r="A236" s="126"/>
       <c r="B236" s="9">
         <v>23</v>
       </c>
@@ -34174,7 +34174,7 @@
       </c>
     </row>
     <row r="237" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A237" s="125"/>
+      <c r="A237" s="126"/>
       <c r="B237" s="9">
         <v>24</v>
       </c>
@@ -34297,7 +34297,7 @@
       </c>
     </row>
     <row r="238" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A238" s="125"/>
+      <c r="A238" s="126"/>
       <c r="B238" s="9">
         <v>25</v>
       </c>
@@ -34420,7 +34420,7 @@
       </c>
     </row>
     <row r="239" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A239" s="125"/>
+      <c r="A239" s="126"/>
       <c r="B239" s="9">
         <v>26</v>
       </c>
@@ -34543,7 +34543,7 @@
       </c>
     </row>
     <row r="240" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A240" s="125"/>
+      <c r="A240" s="126"/>
       <c r="B240" s="9">
         <v>27</v>
       </c>
@@ -34666,7 +34666,7 @@
       </c>
     </row>
     <row r="241" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A241" s="125"/>
+      <c r="A241" s="126"/>
       <c r="B241" s="9">
         <v>28</v>
       </c>
@@ -34789,7 +34789,7 @@
       </c>
     </row>
     <row r="242" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A242" s="125"/>
+      <c r="A242" s="126"/>
       <c r="B242" s="9">
         <v>29</v>
       </c>
@@ -34912,7 +34912,7 @@
       </c>
     </row>
     <row r="243" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A243" s="125"/>
+      <c r="A243" s="126"/>
       <c r="B243" s="9">
         <v>30</v>
       </c>
@@ -35035,7 +35035,7 @@
       </c>
     </row>
     <row r="244" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A244" s="125"/>
+      <c r="A244" s="126"/>
       <c r="B244" s="9">
         <v>31</v>
       </c>
@@ -35158,7 +35158,7 @@
       </c>
     </row>
     <row r="245" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A245" s="125"/>
+      <c r="A245" s="126"/>
       <c r="B245" s="9">
         <v>32</v>
       </c>
@@ -35281,7 +35281,7 @@
       </c>
     </row>
     <row r="246" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A246" s="125"/>
+      <c r="A246" s="126"/>
       <c r="B246" s="9">
         <v>33</v>
       </c>
@@ -35404,7 +35404,7 @@
       </c>
     </row>
     <row r="247" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A247" s="125"/>
+      <c r="A247" s="126"/>
       <c r="B247" s="9">
         <v>34</v>
       </c>
@@ -35527,7 +35527,7 @@
       </c>
     </row>
     <row r="248" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A248" s="125"/>
+      <c r="A248" s="126"/>
       <c r="B248" s="9">
         <v>35</v>
       </c>
@@ -35650,7 +35650,7 @@
       </c>
     </row>
     <row r="249" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A249" s="125"/>
+      <c r="A249" s="126"/>
       <c r="B249" s="9">
         <v>36</v>
       </c>
@@ -35773,7 +35773,7 @@
       </c>
     </row>
     <row r="250" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A250" s="125"/>
+      <c r="A250" s="126"/>
       <c r="B250" s="9">
         <v>37</v>
       </c>
@@ -35896,7 +35896,7 @@
       </c>
     </row>
     <row r="251" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A251" s="125"/>
+      <c r="A251" s="126"/>
       <c r="B251" s="9">
         <v>38</v>
       </c>
@@ -36019,7 +36019,7 @@
       </c>
     </row>
     <row r="252" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A252" s="125"/>
+      <c r="A252" s="126"/>
       <c r="B252" s="9">
         <v>39</v>
       </c>
@@ -36142,7 +36142,7 @@
       </c>
     </row>
     <row r="253" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A253" s="125"/>
+      <c r="A253" s="126"/>
       <c r="B253" s="9">
         <v>40</v>
       </c>
@@ -36265,7 +36265,7 @@
       </c>
     </row>
     <row r="254" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A254" s="125"/>
+      <c r="A254" s="126"/>
       <c r="B254" s="9">
         <v>41</v>
       </c>
@@ -36388,7 +36388,7 @@
       </c>
     </row>
     <row r="255" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A255" s="125"/>
+      <c r="A255" s="126"/>
       <c r="B255" s="9">
         <v>42</v>
       </c>
@@ -36511,7 +36511,7 @@
       </c>
     </row>
     <row r="256" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A256" s="125"/>
+      <c r="A256" s="126"/>
       <c r="B256" s="9">
         <v>43</v>
       </c>
@@ -36634,7 +36634,7 @@
       </c>
     </row>
     <row r="257" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A257" s="125"/>
+      <c r="A257" s="126"/>
       <c r="B257" s="9">
         <v>44</v>
       </c>
@@ -36757,7 +36757,7 @@
       </c>
     </row>
     <row r="258" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A258" s="125"/>
+      <c r="A258" s="126"/>
       <c r="B258" s="9">
         <v>45</v>
       </c>
@@ -36880,7 +36880,7 @@
       </c>
     </row>
     <row r="259" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A259" s="125"/>
+      <c r="A259" s="126"/>
       <c r="B259" s="9">
         <v>46</v>
       </c>
@@ -37003,7 +37003,7 @@
       </c>
     </row>
     <row r="260" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A260" s="125"/>
+      <c r="A260" s="126"/>
       <c r="B260" s="9">
         <v>47</v>
       </c>
@@ -37126,7 +37126,7 @@
       </c>
     </row>
     <row r="261" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A261" s="125"/>
+      <c r="A261" s="126"/>
       <c r="B261" s="9">
         <v>48</v>
       </c>
@@ -37249,7 +37249,7 @@
       </c>
     </row>
     <row r="262" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A262" s="125"/>
+      <c r="A262" s="126"/>
       <c r="B262" s="9">
         <v>49</v>
       </c>
@@ -37372,7 +37372,7 @@
       </c>
     </row>
     <row r="263" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A263" s="125"/>
+      <c r="A263" s="126"/>
       <c r="B263" s="9">
         <v>50</v>
       </c>
@@ -37495,7 +37495,7 @@
       </c>
     </row>
     <row r="264" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A264" s="125"/>
+      <c r="A264" s="126"/>
       <c r="B264" s="9">
         <v>51</v>
       </c>
@@ -37618,7 +37618,7 @@
       </c>
     </row>
     <row r="265" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A265" s="125"/>
+      <c r="A265" s="126"/>
       <c r="B265" s="9">
         <v>52</v>
       </c>
@@ -37741,7 +37741,7 @@
       </c>
     </row>
     <row r="266" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A266" s="125"/>
+      <c r="A266" s="126"/>
       <c r="B266" s="9">
         <v>53</v>
       </c>
@@ -37864,7 +37864,7 @@
       </c>
     </row>
     <row r="267" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A267" s="125"/>
+      <c r="A267" s="126"/>
       <c r="B267" s="9">
         <v>54</v>
       </c>
@@ -37987,7 +37987,7 @@
       </c>
     </row>
     <row r="268" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A268" s="125"/>
+      <c r="A268" s="126"/>
       <c r="B268" s="9">
         <v>55</v>
       </c>
@@ -38110,7 +38110,7 @@
       </c>
     </row>
     <row r="269" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A269" s="125"/>
+      <c r="A269" s="126"/>
       <c r="B269" s="9">
         <v>56</v>
       </c>
@@ -38233,7 +38233,7 @@
       </c>
     </row>
     <row r="270" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A270" s="125"/>
+      <c r="A270" s="126"/>
       <c r="B270" s="9">
         <v>57</v>
       </c>
@@ -38356,7 +38356,7 @@
       </c>
     </row>
     <row r="271" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A271" s="125"/>
+      <c r="A271" s="126"/>
       <c r="B271" s="9">
         <v>58</v>
       </c>
@@ -38479,7 +38479,7 @@
       </c>
     </row>
     <row r="272" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A272" s="125"/>
+      <c r="A272" s="126"/>
       <c r="B272" s="9">
         <v>59</v>
       </c>
@@ -38602,7 +38602,7 @@
       </c>
     </row>
     <row r="273" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A273" s="125"/>
+      <c r="A273" s="126"/>
       <c r="B273" s="9">
         <v>60</v>
       </c>
@@ -38725,7 +38725,7 @@
       </c>
     </row>
     <row r="274" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A274" s="125"/>
+      <c r="A274" s="126"/>
       <c r="B274" s="9">
         <v>61</v>
       </c>
@@ -38848,7 +38848,7 @@
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A275" s="125"/>
+      <c r="A275" s="126"/>
       <c r="B275" s="9">
         <v>62</v>
       </c>
@@ -38971,7 +38971,7 @@
       </c>
     </row>
     <row r="276" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A276" s="125"/>
+      <c r="A276" s="126"/>
       <c r="B276" s="9">
         <v>63</v>
       </c>
@@ -39094,7 +39094,7 @@
       </c>
     </row>
     <row r="277" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A277" s="125"/>
+      <c r="A277" s="126"/>
       <c r="B277" s="9">
         <v>64</v>
       </c>
@@ -39217,7 +39217,7 @@
       </c>
     </row>
     <row r="278" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A278" s="125"/>
+      <c r="A278" s="126"/>
       <c r="B278" s="9">
         <v>65</v>
       </c>
@@ -39340,7 +39340,7 @@
       </c>
     </row>
     <row r="279" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A279" s="125"/>
+      <c r="A279" s="126"/>
       <c r="B279" s="9">
         <v>66</v>
       </c>
@@ -39463,7 +39463,7 @@
       </c>
     </row>
     <row r="280" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A280" s="125"/>
+      <c r="A280" s="126"/>
       <c r="B280" s="9">
         <v>67</v>
       </c>
@@ -39586,7 +39586,7 @@
       </c>
     </row>
     <row r="281" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A281" s="125"/>
+      <c r="A281" s="126"/>
       <c r="B281" s="9">
         <v>68</v>
       </c>
@@ -39709,7 +39709,7 @@
       </c>
     </row>
     <row r="282" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A282" s="125"/>
+      <c r="A282" s="126"/>
       <c r="B282" s="9">
         <v>69</v>
       </c>
@@ -39832,7 +39832,7 @@
       </c>
     </row>
     <row r="283" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A283" s="125"/>
+      <c r="A283" s="126"/>
       <c r="B283" s="9">
         <v>70</v>
       </c>
@@ -39955,7 +39955,7 @@
       </c>
     </row>
     <row r="284" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A284" s="125"/>
+      <c r="A284" s="126"/>
       <c r="B284" s="9">
         <v>71</v>
       </c>
@@ -40078,7 +40078,7 @@
       </c>
     </row>
     <row r="285" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A285" s="125"/>
+      <c r="A285" s="126"/>
       <c r="B285" s="9">
         <v>72</v>
       </c>
@@ -40201,7 +40201,7 @@
       </c>
     </row>
     <row r="286" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A286" s="125"/>
+      <c r="A286" s="126"/>
       <c r="B286" s="9">
         <v>73</v>
       </c>
@@ -40324,7 +40324,7 @@
       </c>
     </row>
     <row r="287" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A287" s="125"/>
+      <c r="A287" s="126"/>
       <c r="B287" s="9">
         <v>74</v>
       </c>
@@ -40447,7 +40447,7 @@
       </c>
     </row>
     <row r="288" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A288" s="125"/>
+      <c r="A288" s="126"/>
       <c r="B288" s="9">
         <v>75</v>
       </c>
@@ -40570,7 +40570,7 @@
       </c>
     </row>
     <row r="289" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A289" s="125"/>
+      <c r="A289" s="126"/>
       <c r="B289" s="9">
         <v>76</v>
       </c>
@@ -40693,7 +40693,7 @@
       </c>
     </row>
     <row r="290" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A290" s="125"/>
+      <c r="A290" s="126"/>
       <c r="B290" s="9">
         <v>77</v>
       </c>
@@ -40816,7 +40816,7 @@
       </c>
     </row>
     <row r="291" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A291" s="125"/>
+      <c r="A291" s="126"/>
       <c r="B291" s="9">
         <v>78</v>
       </c>
@@ -40939,7 +40939,7 @@
       </c>
     </row>
     <row r="292" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A292" s="125"/>
+      <c r="A292" s="126"/>
       <c r="B292" s="9">
         <v>79</v>
       </c>
@@ -41062,7 +41062,7 @@
       </c>
     </row>
     <row r="293" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A293" s="125"/>
+      <c r="A293" s="126"/>
       <c r="B293" s="9">
         <v>80</v>
       </c>
@@ -41185,7 +41185,7 @@
       </c>
     </row>
     <row r="294" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A294" s="125"/>
+      <c r="A294" s="126"/>
       <c r="B294" s="9">
         <v>81</v>
       </c>
@@ -41308,7 +41308,7 @@
       </c>
     </row>
     <row r="295" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A295" s="125"/>
+      <c r="A295" s="126"/>
       <c r="B295" s="9">
         <v>82</v>
       </c>
@@ -41431,7 +41431,7 @@
       </c>
     </row>
     <row r="296" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A296" s="125"/>
+      <c r="A296" s="126"/>
       <c r="B296" s="9">
         <v>83</v>
       </c>
@@ -41554,7 +41554,7 @@
       </c>
     </row>
     <row r="297" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A297" s="125"/>
+      <c r="A297" s="126"/>
       <c r="B297" s="9">
         <v>84</v>
       </c>
@@ -41677,7 +41677,7 @@
       </c>
     </row>
     <row r="298" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A298" s="125"/>
+      <c r="A298" s="126"/>
       <c r="B298" s="9">
         <v>85</v>
       </c>
@@ -41800,7 +41800,7 @@
       </c>
     </row>
     <row r="299" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A299" s="125"/>
+      <c r="A299" s="126"/>
       <c r="B299" s="9">
         <v>86</v>
       </c>
@@ -41923,7 +41923,7 @@
       </c>
     </row>
     <row r="300" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A300" s="125"/>
+      <c r="A300" s="126"/>
       <c r="B300" s="9">
         <v>87</v>
       </c>
@@ -42046,7 +42046,7 @@
       </c>
     </row>
     <row r="301" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A301" s="125"/>
+      <c r="A301" s="126"/>
       <c r="B301" s="9">
         <v>88</v>
       </c>
@@ -42169,7 +42169,7 @@
       </c>
     </row>
     <row r="302" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A302" s="125"/>
+      <c r="A302" s="126"/>
       <c r="B302" s="9">
         <v>89</v>
       </c>
@@ -42292,7 +42292,7 @@
       </c>
     </row>
     <row r="303" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A303" s="125"/>
+      <c r="A303" s="126"/>
       <c r="B303" s="9">
         <v>90</v>
       </c>
@@ -42415,7 +42415,7 @@
       </c>
     </row>
     <row r="304" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A304" s="125"/>
+      <c r="A304" s="126"/>
       <c r="B304" s="9">
         <v>91</v>
       </c>
@@ -42538,7 +42538,7 @@
       </c>
     </row>
     <row r="305" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A305" s="125"/>
+      <c r="A305" s="126"/>
       <c r="B305" s="9">
         <v>92</v>
       </c>
@@ -42661,7 +42661,7 @@
       </c>
     </row>
     <row r="306" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A306" s="125"/>
+      <c r="A306" s="126"/>
       <c r="B306" s="9">
         <v>93</v>
       </c>
@@ -42784,7 +42784,7 @@
       </c>
     </row>
     <row r="307" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A307" s="125"/>
+      <c r="A307" s="126"/>
       <c r="B307" s="9">
         <v>94</v>
       </c>
@@ -42907,7 +42907,7 @@
       </c>
     </row>
     <row r="308" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A308" s="125"/>
+      <c r="A308" s="126"/>
       <c r="B308" s="9">
         <v>95</v>
       </c>
@@ -43030,7 +43030,7 @@
       </c>
     </row>
     <row r="309" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A309" s="125"/>
+      <c r="A309" s="126"/>
       <c r="B309" s="9">
         <v>96</v>
       </c>
@@ -43153,7 +43153,7 @@
       </c>
     </row>
     <row r="310" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A310" s="125"/>
+      <c r="A310" s="126"/>
       <c r="B310" s="9">
         <v>97</v>
       </c>
@@ -43276,7 +43276,7 @@
       </c>
     </row>
     <row r="311" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A311" s="125"/>
+      <c r="A311" s="126"/>
       <c r="B311" s="9">
         <v>98</v>
       </c>
@@ -43399,7 +43399,7 @@
       </c>
     </row>
     <row r="312" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A312" s="125"/>
+      <c r="A312" s="126"/>
       <c r="B312" s="9">
         <v>99</v>
       </c>
@@ -43522,7 +43522,7 @@
       </c>
     </row>
     <row r="313" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A313" s="125"/>
+      <c r="A313" s="126"/>
       <c r="B313" s="10" t="s">
         <v>79</v>
       </c>
@@ -43642,6 +43642,12 @@
       </c>
       <c r="AO313" s="4">
         <v>1923</v>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K340" s="122">
+        <f>SUM(L8:AO8)/30</f>
+        <v>1165628.1000000001</v>
       </c>
     </row>
   </sheetData>
@@ -43683,8 +43689,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132"/>
-      <c r="B1" s="132"/>
+      <c r="A1" s="133"/>
+      <c r="B1" s="133"/>
       <c r="C1" s="63" t="s">
         <v>54</v>
       </c>
@@ -43728,10 +43734,10 @@
       <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="D2" s="26" t="s">
         <v>40</v>
       </c>
@@ -43774,10 +43780,10 @@
       <c r="AO2" s="28"/>
     </row>
     <row r="3" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="129"/>
       <c r="D3" s="19" t="s">
         <v>69</v>
       </c>
@@ -44081,7 +44087,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="130" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -44206,7 +44212,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="130"/>
+      <c r="A9" s="131"/>
       <c r="B9" s="52" t="s">
         <v>20</v>
       </c>
@@ -44329,7 +44335,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="130"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="52" t="s">
         <v>21</v>
       </c>
@@ -44452,7 +44458,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="130"/>
+      <c r="A11" s="131"/>
       <c r="B11" s="53" t="s">
         <v>22</v>
       </c>
@@ -44575,7 +44581,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
+      <c r="A12" s="131"/>
       <c r="B12" s="52" t="s">
         <v>23</v>
       </c>
@@ -44698,7 +44704,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="130"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="52" t="s">
         <v>24</v>
       </c>
@@ -44821,7 +44827,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="130"/>
+      <c r="A14" s="131"/>
       <c r="B14" s="52" t="s">
         <v>25</v>
       </c>
@@ -44944,7 +44950,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="130"/>
+      <c r="A15" s="131"/>
       <c r="B15" s="52" t="s">
         <v>26</v>
       </c>
@@ -45067,7 +45073,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="130"/>
+      <c r="A16" s="131"/>
       <c r="B16" s="52" t="s">
         <v>27</v>
       </c>
@@ -45190,7 +45196,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
+      <c r="A17" s="131"/>
       <c r="B17" s="52" t="s">
         <v>28</v>
       </c>
@@ -45313,7 +45319,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="130"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="52" t="s">
         <v>29</v>
       </c>
@@ -45436,7 +45442,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="130"/>
+      <c r="A19" s="131"/>
       <c r="B19" s="52" t="s">
         <v>30</v>
       </c>
@@ -45559,7 +45565,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="130"/>
+      <c r="A20" s="131"/>
       <c r="B20" s="52" t="s">
         <v>31</v>
       </c>
@@ -45682,7 +45688,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="130"/>
+      <c r="A21" s="131"/>
       <c r="B21" s="52" t="s">
         <v>32</v>
       </c>
@@ -45805,7 +45811,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="130"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="53" t="s">
         <v>33</v>
       </c>
@@ -45928,7 +45934,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="130"/>
+      <c r="A23" s="131"/>
       <c r="B23" s="52" t="s">
         <v>34</v>
       </c>
@@ -46051,7 +46057,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="130"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="52" t="s">
         <v>35</v>
       </c>
@@ -46174,7 +46180,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="130"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="52" t="s">
         <v>36</v>
       </c>
@@ -46297,7 +46303,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="130"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="52" t="s">
         <v>37</v>
       </c>
@@ -46420,7 +46426,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="130"/>
+      <c r="A27" s="131"/>
       <c r="B27" s="62" t="s">
         <v>80</v>
       </c>
@@ -46543,7 +46549,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="130"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="62" t="s">
         <v>81</v>
       </c>
@@ -46666,7 +46672,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="131"/>
+      <c r="A29" s="132"/>
       <c r="B29" s="54" t="s">
         <v>79</v>
       </c>
@@ -46789,7 +46795,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="131" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="69" t="s">
@@ -46914,7 +46920,7 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A31" s="130"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="52" t="s">
         <v>20</v>
       </c>
@@ -47037,7 +47043,7 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A32" s="130"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="52" t="s">
         <v>21</v>
       </c>
@@ -47160,7 +47166,7 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A33" s="130"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="52" t="s">
         <v>22</v>
       </c>
@@ -47283,7 +47289,7 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A34" s="130"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="52" t="s">
         <v>23</v>
       </c>
@@ -47406,7 +47412,7 @@
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A35" s="130"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="52" t="s">
         <v>24</v>
       </c>
@@ -47529,7 +47535,7 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A36" s="130"/>
+      <c r="A36" s="131"/>
       <c r="B36" s="52" t="s">
         <v>25</v>
       </c>
@@ -47652,7 +47658,7 @@
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A37" s="130"/>
+      <c r="A37" s="131"/>
       <c r="B37" s="52" t="s">
         <v>26</v>
       </c>
@@ -47775,7 +47781,7 @@
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A38" s="130"/>
+      <c r="A38" s="131"/>
       <c r="B38" s="52" t="s">
         <v>27</v>
       </c>
@@ -47898,7 +47904,7 @@
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A39" s="130"/>
+      <c r="A39" s="131"/>
       <c r="B39" s="52" t="s">
         <v>28</v>
       </c>
@@ -48021,7 +48027,7 @@
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A40" s="130"/>
+      <c r="A40" s="131"/>
       <c r="B40" s="52" t="s">
         <v>29</v>
       </c>
@@ -48144,7 +48150,7 @@
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A41" s="130"/>
+      <c r="A41" s="131"/>
       <c r="B41" s="52" t="s">
         <v>30</v>
       </c>
@@ -48267,7 +48273,7 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A42" s="130"/>
+      <c r="A42" s="131"/>
       <c r="B42" s="52" t="s">
         <v>31</v>
       </c>
@@ -48390,7 +48396,7 @@
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A43" s="130"/>
+      <c r="A43" s="131"/>
       <c r="B43" s="52" t="s">
         <v>32</v>
       </c>
@@ -48513,7 +48519,7 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A44" s="130"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="53" t="s">
         <v>33</v>
       </c>
@@ -48636,7 +48642,7 @@
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A45" s="130"/>
+      <c r="A45" s="131"/>
       <c r="B45" s="52" t="s">
         <v>34</v>
       </c>
@@ -48759,7 +48765,7 @@
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A46" s="130"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="52" t="s">
         <v>35</v>
       </c>
@@ -48882,7 +48888,7 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A47" s="130"/>
+      <c r="A47" s="131"/>
       <c r="B47" s="52" t="s">
         <v>36</v>
       </c>
@@ -49005,7 +49011,7 @@
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A48" s="130"/>
+      <c r="A48" s="131"/>
       <c r="B48" s="52" t="s">
         <v>37</v>
       </c>
@@ -49128,7 +49134,7 @@
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A49" s="130"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="62" t="s">
         <v>80</v>
       </c>
@@ -49251,7 +49257,7 @@
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A50" s="130"/>
+      <c r="A50" s="131"/>
       <c r="B50" s="62" t="s">
         <v>81</v>
       </c>
@@ -49374,7 +49380,7 @@
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A51" s="130"/>
+      <c r="A51" s="131"/>
       <c r="B51" s="54" t="s">
         <v>79</v>
       </c>
@@ -49497,7 +49503,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="130" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="69" t="s">
@@ -49622,7 +49628,7 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A53" s="130"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="52" t="s">
         <v>20</v>
       </c>
@@ -49745,7 +49751,7 @@
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A54" s="130"/>
+      <c r="A54" s="131"/>
       <c r="B54" s="52" t="s">
         <v>21</v>
       </c>
@@ -49868,7 +49874,7 @@
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A55" s="130"/>
+      <c r="A55" s="131"/>
       <c r="B55" s="52" t="s">
         <v>22</v>
       </c>
@@ -49991,7 +49997,7 @@
       </c>
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A56" s="130"/>
+      <c r="A56" s="131"/>
       <c r="B56" s="52" t="s">
         <v>23</v>
       </c>
@@ -50114,7 +50120,7 @@
       </c>
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A57" s="130"/>
+      <c r="A57" s="131"/>
       <c r="B57" s="52" t="s">
         <v>24</v>
       </c>
@@ -50237,7 +50243,7 @@
       </c>
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A58" s="130"/>
+      <c r="A58" s="131"/>
       <c r="B58" s="52" t="s">
         <v>25</v>
       </c>
@@ -50360,7 +50366,7 @@
       </c>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A59" s="130"/>
+      <c r="A59" s="131"/>
       <c r="B59" s="52" t="s">
         <v>26</v>
       </c>
@@ -50483,7 +50489,7 @@
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A60" s="130"/>
+      <c r="A60" s="131"/>
       <c r="B60" s="52" t="s">
         <v>27</v>
       </c>
@@ -50606,7 +50612,7 @@
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A61" s="130"/>
+      <c r="A61" s="131"/>
       <c r="B61" s="52" t="s">
         <v>28</v>
       </c>
@@ -50729,7 +50735,7 @@
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A62" s="130"/>
+      <c r="A62" s="131"/>
       <c r="B62" s="52" t="s">
         <v>29</v>
       </c>
@@ -50852,7 +50858,7 @@
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A63" s="130"/>
+      <c r="A63" s="131"/>
       <c r="B63" s="52" t="s">
         <v>30</v>
       </c>
@@ -50975,7 +50981,7 @@
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A64" s="130"/>
+      <c r="A64" s="131"/>
       <c r="B64" s="52" t="s">
         <v>31</v>
       </c>
@@ -51098,7 +51104,7 @@
       </c>
     </row>
     <row r="65" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A65" s="130"/>
+      <c r="A65" s="131"/>
       <c r="B65" s="52" t="s">
         <v>32</v>
       </c>
@@ -51221,7 +51227,7 @@
       </c>
     </row>
     <row r="66" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A66" s="130"/>
+      <c r="A66" s="131"/>
       <c r="B66" s="53" t="s">
         <v>33</v>
       </c>
@@ -51344,7 +51350,7 @@
       </c>
     </row>
     <row r="67" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A67" s="130"/>
+      <c r="A67" s="131"/>
       <c r="B67" s="52" t="s">
         <v>34</v>
       </c>
@@ -51467,7 +51473,7 @@
       </c>
     </row>
     <row r="68" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A68" s="130"/>
+      <c r="A68" s="131"/>
       <c r="B68" s="52" t="s">
         <v>35</v>
       </c>
@@ -51590,7 +51596,7 @@
       </c>
     </row>
     <row r="69" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A69" s="130"/>
+      <c r="A69" s="131"/>
       <c r="B69" s="52" t="s">
         <v>36</v>
       </c>
@@ -51713,7 +51719,7 @@
       </c>
     </row>
     <row r="70" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A70" s="130"/>
+      <c r="A70" s="131"/>
       <c r="B70" s="52" t="s">
         <v>37</v>
       </c>
@@ -51836,7 +51842,7 @@
       </c>
     </row>
     <row r="71" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A71" s="130"/>
+      <c r="A71" s="131"/>
       <c r="B71" s="52" t="s">
         <v>80</v>
       </c>
@@ -51959,7 +51965,7 @@
       </c>
     </row>
     <row r="72" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A72" s="130"/>
+      <c r="A72" s="131"/>
       <c r="B72" s="62" t="s">
         <v>81</v>
       </c>
@@ -52082,7 +52088,7 @@
       </c>
     </row>
     <row r="73" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A73" s="131"/>
+      <c r="A73" s="132"/>
       <c r="B73" s="54" t="s">
         <v>79</v>
       </c>
@@ -52248,8 +52254,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="136"/>
-      <c r="B1" s="136"/>
+      <c r="A1" s="137"/>
+      <c r="B1" s="137"/>
       <c r="C1" s="65" t="s">
         <v>67</v>
       </c>
@@ -52293,10 +52299,10 @@
       <c r="AO1" s="64"/>
     </row>
     <row r="2" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="29"/>
       <c r="D2" s="26" t="s">
         <v>40</v>
@@ -52340,10 +52346,10 @@
       <c r="AO2" s="24"/>
     </row>
     <row r="3" spans="1:41" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="129"/>
       <c r="D3" s="19" t="s">
         <v>68</v>
       </c>
@@ -52645,7 +52651,7 @@
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A8" s="133" t="s">
+      <c r="A8" s="134" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="69" t="s">
@@ -52770,7 +52776,7 @@
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A9" s="134"/>
+      <c r="A9" s="135"/>
       <c r="B9" s="52" t="s">
         <v>8</v>
       </c>
@@ -52893,7 +52899,7 @@
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A10" s="134"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="52" t="s">
         <v>9</v>
       </c>
@@ -53016,7 +53022,7 @@
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A11" s="134"/>
+      <c r="A11" s="135"/>
       <c r="B11" s="52" t="s">
         <v>11</v>
       </c>
@@ -53139,7 +53145,7 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A12" s="134"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="52" t="s">
         <v>12</v>
       </c>
@@ -53262,7 +53268,7 @@
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A13" s="134"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="52" t="s">
         <v>10</v>
       </c>
@@ -53385,7 +53391,7 @@
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A14" s="134"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="52" t="s">
         <v>0</v>
       </c>
@@ -53508,7 +53514,7 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A15" s="134"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="52" t="s">
         <v>1</v>
       </c>
@@ -53631,7 +53637,7 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" s="134"/>
+      <c r="A16" s="135"/>
       <c r="B16" s="53" t="s">
         <v>18</v>
       </c>
@@ -53754,7 +53760,7 @@
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A17" s="134"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="52" t="s">
         <v>19</v>
       </c>
@@ -53877,7 +53883,7 @@
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
+      <c r="A18" s="135"/>
       <c r="B18" s="52" t="s">
         <v>2</v>
       </c>
@@ -54000,7 +54006,7 @@
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A19" s="134"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="52" t="s">
         <v>3</v>
       </c>
@@ -54123,7 +54129,7 @@
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A20" s="134"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="52" t="s">
         <v>4</v>
       </c>
@@ -54246,7 +54252,7 @@
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A21" s="134"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="52" t="s">
         <v>5</v>
       </c>
@@ -54369,7 +54375,7 @@
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A22" s="135"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="54" t="s">
         <v>6</v>
       </c>
@@ -54492,7 +54498,7 @@
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="135" t="s">
         <v>50</v>
       </c>
       <c r="B23" s="69" t="s">
@@ -54617,7 +54623,7 @@
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A24" s="134"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="52" t="s">
         <v>8</v>
       </c>
@@ -54740,7 +54746,7 @@
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A25" s="134"/>
+      <c r="A25" s="135"/>
       <c r="B25" s="52" t="s">
         <v>14</v>
       </c>
@@ -54863,7 +54869,7 @@
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="52" t="s">
         <v>11</v>
       </c>
@@ -54986,7 +54992,7 @@
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
+      <c r="A27" s="135"/>
       <c r="B27" s="52" t="s">
         <v>13</v>
       </c>
@@ -55109,7 +55115,7 @@
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="52" t="s">
         <v>5</v>
       </c>
@@ -55232,7 +55238,7 @@
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A29" s="134"/>
+      <c r="A29" s="135"/>
       <c r="B29" s="52" t="s">
         <v>0</v>
       </c>
@@ -55355,7 +55361,7 @@
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A30" s="134"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="52" t="s">
         <v>1</v>
       </c>
@@ -55478,7 +55484,7 @@
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A31" s="134"/>
+      <c r="A31" s="135"/>
       <c r="B31" s="53" t="s">
         <v>18</v>
       </c>
@@ -55601,7 +55607,7 @@
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A32" s="134"/>
+      <c r="A32" s="135"/>
       <c r="B32" s="52" t="s">
         <v>19</v>
       </c>
@@ -55724,7 +55730,7 @@
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A33" s="134"/>
+      <c r="A33" s="135"/>
       <c r="B33" s="52" t="s">
         <v>2</v>
       </c>
@@ -55847,7 +55853,7 @@
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A34" s="134"/>
+      <c r="A34" s="135"/>
       <c r="B34" s="52" t="s">
         <v>3</v>
       </c>
@@ -55970,7 +55976,7 @@
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A35" s="134"/>
+      <c r="A35" s="135"/>
       <c r="B35" s="52" t="s">
         <v>4</v>
       </c>
@@ -56093,7 +56099,7 @@
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A36" s="134"/>
+      <c r="A36" s="135"/>
       <c r="B36" s="52" t="s">
         <v>5</v>
       </c>
@@ -56216,7 +56222,7 @@
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A37" s="134"/>
+      <c r="A37" s="135"/>
       <c r="B37" s="54" t="s">
         <v>6</v>
       </c>
@@ -56339,7 +56345,7 @@
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A38" s="133" t="s">
+      <c r="A38" s="134" t="s">
         <v>51</v>
       </c>
       <c r="B38" s="69" t="s">
@@ -56464,7 +56470,7 @@
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A39" s="134"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="52" t="s">
         <v>8</v>
       </c>
@@ -56587,7 +56593,7 @@
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A40" s="134"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="52" t="s">
         <v>15</v>
       </c>
@@ -56710,7 +56716,7 @@
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A41" s="134"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="52" t="s">
         <v>11</v>
       </c>
@@ -56833,7 +56839,7 @@
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A42" s="134"/>
+      <c r="A42" s="135"/>
       <c r="B42" s="52" t="s">
         <v>16</v>
       </c>
@@ -56956,7 +56962,7 @@
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A43" s="134"/>
+      <c r="A43" s="135"/>
       <c r="B43" s="52" t="s">
         <v>17</v>
       </c>
@@ -57079,7 +57085,7 @@
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A44" s="134"/>
+      <c r="A44" s="135"/>
       <c r="B44" s="52" t="s">
         <v>0</v>
       </c>
@@ -57202,7 +57208,7 @@
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A45" s="134"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="52" t="s">
         <v>1</v>
       </c>
@@ -57325,7 +57331,7 @@
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A46" s="134"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="53" t="s">
         <v>18</v>
       </c>
@@ -57448,7 +57454,7 @@
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A47" s="134"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="52" t="s">
         <v>19</v>
       </c>
@@ -57571,7 +57577,7 @@
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A48" s="134"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="52" t="s">
         <v>2</v>
       </c>
@@ -57694,7 +57700,7 @@
       </c>
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A49" s="134"/>
+      <c r="A49" s="135"/>
       <c r="B49" s="52" t="s">
         <v>3</v>
       </c>
@@ -57817,7 +57823,7 @@
       </c>
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A50" s="134"/>
+      <c r="A50" s="135"/>
       <c r="B50" s="52" t="s">
         <v>4</v>
       </c>
@@ -57940,7 +57946,7 @@
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A51" s="134"/>
+      <c r="A51" s="135"/>
       <c r="B51" s="52" t="s">
         <v>5</v>
       </c>
@@ -58063,7 +58069,7 @@
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A52" s="134"/>
+      <c r="A52" s="135"/>
       <c r="B52" s="52" t="s">
         <v>6</v>
       </c>
@@ -58186,7 +58192,7 @@
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A53" s="135"/>
+      <c r="A53" s="136"/>
       <c r="B53" s="54" t="s">
         <v>7</v>
       </c>
@@ -58335,7 +58341,7 @@
   </sheetPr>
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -58355,11 +58361,11 @@
       <c r="A1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="68"/>
@@ -58367,10 +58373,10 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="127"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="34" t="s">
         <v>57</v>
       </c>
@@ -58382,10 +58388,10 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="129"/>
       <c r="C3" s="34"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -58406,24 +58412,24 @@
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141" t="s">
+      <c r="C5" s="141"/>
+      <c r="D5" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="142"/>
-      <c r="F5" s="143" t="s">
+      <c r="E5" s="143"/>
+      <c r="F5" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="138"/>
+      <c r="A6" s="139"/>
       <c r="B6" s="35" t="s">
         <v>103</v>
       </c>
@@ -58655,11 +58661,11 @@
       <c r="G15" s="2">
         <v>620</v>
       </c>
-      <c r="I15" s="155">
+      <c r="I15" s="122">
         <f>D15-E15</f>
         <v>-1072</v>
       </c>
-      <c r="J15" s="155">
+      <c r="J15" s="122">
         <f>F15-G15</f>
         <v>533</v>
       </c>
@@ -58686,11 +58692,11 @@
       <c r="G16" s="2">
         <v>608</v>
       </c>
-      <c r="I16" s="155">
+      <c r="I16" s="122">
         <f t="shared" ref="I16:I44" si="0">D16-E16</f>
         <v>-1020</v>
       </c>
-      <c r="J16" s="155">
+      <c r="J16" s="122">
         <f t="shared" ref="J16:J44" si="1">F16-G16</f>
         <v>421</v>
       </c>
@@ -58717,11 +58723,11 @@
       <c r="G17" s="2">
         <v>613</v>
       </c>
-      <c r="I17" s="155">
+      <c r="I17" s="122">
         <f t="shared" si="0"/>
         <v>-1024</v>
       </c>
-      <c r="J17" s="155">
+      <c r="J17" s="122">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
@@ -58748,11 +58754,11 @@
       <c r="G18" s="2">
         <v>610</v>
       </c>
-      <c r="I18" s="155">
+      <c r="I18" s="122">
         <f t="shared" si="0"/>
         <v>-999</v>
       </c>
-      <c r="J18" s="155">
+      <c r="J18" s="122">
         <f t="shared" si="1"/>
         <v>321</v>
       </c>
@@ -58779,11 +58785,11 @@
       <c r="G19" s="2">
         <v>608</v>
       </c>
-      <c r="I19" s="155">
+      <c r="I19" s="122">
         <f t="shared" si="0"/>
         <v>-996</v>
       </c>
-      <c r="J19" s="155">
+      <c r="J19" s="122">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
@@ -58810,11 +58816,11 @@
       <c r="G20" s="2">
         <v>604</v>
       </c>
-      <c r="I20" s="155">
+      <c r="I20" s="122">
         <f t="shared" si="0"/>
         <v>-973</v>
       </c>
-      <c r="J20" s="155">
+      <c r="J20" s="122">
         <f t="shared" si="1"/>
         <v>347</v>
       </c>
@@ -58841,11 +58847,11 @@
       <c r="G21" s="2">
         <v>594</v>
       </c>
-      <c r="I21" s="155">
+      <c r="I21" s="122">
         <f t="shared" si="0"/>
         <v>-978</v>
       </c>
-      <c r="J21" s="155">
+      <c r="J21" s="122">
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
@@ -58872,11 +58878,11 @@
       <c r="G22" s="2">
         <v>596</v>
       </c>
-      <c r="I22" s="155">
+      <c r="I22" s="122">
         <f t="shared" si="0"/>
         <v>-929</v>
       </c>
-      <c r="J22" s="155">
+      <c r="J22" s="122">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
@@ -58903,11 +58909,11 @@
       <c r="G23" s="2">
         <v>590</v>
       </c>
-      <c r="I23" s="155">
+      <c r="I23" s="122">
         <f t="shared" si="0"/>
         <v>-904</v>
       </c>
-      <c r="J23" s="155">
+      <c r="J23" s="122">
         <f t="shared" si="1"/>
         <v>394</v>
       </c>
@@ -58934,11 +58940,11 @@
       <c r="G24" s="2">
         <v>584</v>
       </c>
-      <c r="I24" s="155">
+      <c r="I24" s="122">
         <f t="shared" si="0"/>
         <v>-863</v>
       </c>
-      <c r="J24" s="155">
+      <c r="J24" s="122">
         <f t="shared" si="1"/>
         <v>410</v>
       </c>
@@ -58965,11 +58971,11 @@
       <c r="G25" s="2">
         <v>577</v>
       </c>
-      <c r="I25" s="155">
+      <c r="I25" s="122">
         <f t="shared" si="0"/>
         <v>-828</v>
       </c>
-      <c r="J25" s="155">
+      <c r="J25" s="122">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
@@ -58996,11 +59002,11 @@
       <c r="G26" s="2">
         <v>584</v>
       </c>
-      <c r="I26" s="155">
+      <c r="I26" s="122">
         <f t="shared" si="0"/>
         <v>-766</v>
       </c>
-      <c r="J26" s="155">
+      <c r="J26" s="122">
         <f t="shared" si="1"/>
         <v>419</v>
       </c>
@@ -59027,11 +59033,11 @@
       <c r="G27" s="2">
         <v>588</v>
       </c>
-      <c r="I27" s="155">
+      <c r="I27" s="122">
         <f t="shared" si="0"/>
         <v>-716</v>
       </c>
-      <c r="J27" s="155">
+      <c r="J27" s="122">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
@@ -59058,11 +59064,11 @@
       <c r="G28" s="2">
         <v>586</v>
       </c>
-      <c r="I28" s="155">
+      <c r="I28" s="122">
         <f t="shared" si="0"/>
         <v>-690</v>
       </c>
-      <c r="J28" s="155">
+      <c r="J28" s="122">
         <f t="shared" si="1"/>
         <v>428</v>
       </c>
@@ -59089,11 +59095,11 @@
       <c r="G29" s="2">
         <v>580</v>
       </c>
-      <c r="I29" s="155">
+      <c r="I29" s="122">
         <f t="shared" si="0"/>
         <v>-639</v>
       </c>
-      <c r="J29" s="155">
+      <c r="J29" s="122">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
@@ -59120,11 +59126,11 @@
       <c r="G30" s="2">
         <v>587</v>
       </c>
-      <c r="I30" s="155">
+      <c r="I30" s="122">
         <f t="shared" si="0"/>
         <v>-586</v>
       </c>
-      <c r="J30" s="155">
+      <c r="J30" s="122">
         <f t="shared" si="1"/>
         <v>441</v>
       </c>
@@ -59151,11 +59157,11 @@
       <c r="G31" s="2">
         <v>589</v>
       </c>
-      <c r="I31" s="155">
+      <c r="I31" s="122">
         <f t="shared" si="0"/>
         <v>-528</v>
       </c>
-      <c r="J31" s="155">
+      <c r="J31" s="122">
         <f t="shared" si="1"/>
         <v>445</v>
       </c>
@@ -59182,11 +59188,11 @@
       <c r="G32" s="2">
         <v>582</v>
       </c>
-      <c r="I32" s="155">
+      <c r="I32" s="122">
         <f t="shared" si="0"/>
         <v>-463</v>
       </c>
-      <c r="J32" s="155">
+      <c r="J32" s="122">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
@@ -59213,11 +59219,11 @@
       <c r="G33" s="2">
         <v>577</v>
       </c>
-      <c r="I33" s="155">
+      <c r="I33" s="122">
         <f t="shared" si="0"/>
         <v>-346</v>
       </c>
-      <c r="J33" s="155">
+      <c r="J33" s="122">
         <f t="shared" si="1"/>
         <v>470</v>
       </c>
@@ -59244,11 +59250,11 @@
       <c r="G34" s="2">
         <v>577</v>
       </c>
-      <c r="I34" s="155">
+      <c r="I34" s="122">
         <f t="shared" si="0"/>
         <v>-288</v>
       </c>
-      <c r="J34" s="155">
+      <c r="J34" s="122">
         <f t="shared" si="1"/>
         <v>477</v>
       </c>
@@ -59275,11 +59281,11 @@
       <c r="G35" s="2">
         <v>572</v>
       </c>
-      <c r="I35" s="155">
+      <c r="I35" s="122">
         <f t="shared" si="0"/>
         <v>-216</v>
       </c>
-      <c r="J35" s="155">
+      <c r="J35" s="122">
         <f t="shared" si="1"/>
         <v>489</v>
       </c>
@@ -59306,11 +59312,11 @@
       <c r="G36" s="2">
         <v>569</v>
       </c>
-      <c r="I36" s="155">
+      <c r="I36" s="122">
         <f t="shared" si="0"/>
         <v>-160</v>
       </c>
-      <c r="J36" s="155">
+      <c r="J36" s="122">
         <f t="shared" si="1"/>
         <v>497</v>
       </c>
@@ -59337,11 +59343,11 @@
       <c r="G37" s="2">
         <v>570</v>
       </c>
-      <c r="I37" s="155">
+      <c r="I37" s="122">
         <f t="shared" si="0"/>
         <v>-125</v>
       </c>
-      <c r="J37" s="155">
+      <c r="J37" s="122">
         <f t="shared" si="1"/>
         <v>505</v>
       </c>
@@ -59368,11 +59374,11 @@
       <c r="G38" s="2">
         <v>563</v>
       </c>
-      <c r="I38" s="155">
+      <c r="I38" s="122">
         <f t="shared" si="0"/>
         <v>-74</v>
       </c>
-      <c r="J38" s="155">
+      <c r="J38" s="122">
         <f t="shared" si="1"/>
         <v>519</v>
       </c>
@@ -59399,11 +59405,11 @@
       <c r="G39" s="2">
         <v>562</v>
       </c>
-      <c r="I39" s="155">
+      <c r="I39" s="122">
         <f t="shared" si="0"/>
         <v>-26</v>
       </c>
-      <c r="J39" s="155">
+      <c r="J39" s="122">
         <f t="shared" si="1"/>
         <v>521</v>
       </c>
@@ -59430,11 +59436,11 @@
       <c r="G40" s="2">
         <v>554</v>
       </c>
-      <c r="I40" s="155">
+      <c r="I40" s="122">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="J40" s="155">
+      <c r="J40" s="122">
         <f t="shared" si="1"/>
         <v>536</v>
       </c>
@@ -59461,11 +59467,11 @@
       <c r="G41" s="2">
         <v>553</v>
       </c>
-      <c r="I41" s="155">
+      <c r="I41" s="122">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="J41" s="155">
+      <c r="J41" s="122">
         <f t="shared" si="1"/>
         <v>541</v>
       </c>
@@ -59492,11 +59498,11 @@
       <c r="G42" s="2">
         <v>554</v>
       </c>
-      <c r="I42" s="155">
+      <c r="I42" s="122">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="J42" s="155">
+      <c r="J42" s="122">
         <f t="shared" si="1"/>
         <v>545</v>
       </c>
@@ -59523,11 +59529,11 @@
       <c r="G43" s="2">
         <v>554</v>
       </c>
-      <c r="I43" s="155">
+      <c r="I43" s="122">
         <f>D43-E43</f>
         <v>145</v>
       </c>
-      <c r="J43" s="155">
+      <c r="J43" s="122">
         <f t="shared" si="1"/>
         <v>546</v>
       </c>
@@ -59554,11 +59560,11 @@
       <c r="G44" s="6">
         <v>556</v>
       </c>
-      <c r="I44" s="155">
+      <c r="I44" s="122">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="J44" s="155">
+      <c r="J44" s="122">
         <f t="shared" si="1"/>
         <v>556</v>
       </c>
@@ -59609,10 +59615,10 @@
   <sheetData>
     <row r="1" spans="1:39" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="117"/>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="147"/>
+      <c r="C1" s="148"/>
       <c r="D1" s="102"/>
       <c r="E1" s="102"/>
       <c r="F1" s="102"/>
@@ -59654,10 +59660,10 @@
       <c r="A2" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="149" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="149"/>
+      <c r="C2" s="150"/>
       <c r="D2" s="101"/>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -59699,8 +59705,8 @@
       <c r="A3" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="101"/>
@@ -59737,11 +59743,11 @@
       <c r="AM3" s="105"/>
     </row>
     <row r="4" spans="1:39" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
       <c r="P4" s="87"/>
